--- a/formulieren/09000.xlsx
+++ b/formulieren/09000.xlsx
@@ -11,6 +11,7 @@
     <sheet name="09060" sheetId="6" r:id="rId6"/>
     <sheet name="09080" sheetId="7" r:id="rId7"/>
     <sheet name="09810" sheetId="8" r:id="rId8"/>
+    <sheet name="09081" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -9560,4 +9561,1559 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>regel template</v>
+      </c>
+      <c r="G1" t="str">
+        <v>A327</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Verzekerde Modules</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>_x000c_35 Verzekerde Modules</v>
+      </c>
+      <c r="G2" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Soort verzekering</v>
+      </c>
+      <c r="B3" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>02 Soort verzekering         10142</v>
+      </c>
+      <c r="G3" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E4" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Gezinssamenstelling</v>
+      </c>
+      <c r="B5" t="str">
+        <v>10694</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>03 Gezinssamenstelling       10694</v>
+      </c>
+      <c r="G5" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>10694</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E6" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Aantal artsen</v>
+      </c>
+      <c r="B7" t="str">
+        <v>13610</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>04 Aantal artsen             13610</v>
+      </c>
+      <c r="G7" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>13610</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E8" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Vrije advocaat keuze (VAK)</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>06                           Vrije advocaat keuze (VAK)</v>
+      </c>
+      <c r="G9" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Verzekerd bedrag VAK</v>
+      </c>
+      <c r="B10" t="str">
+        <v>€ 10611</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>07 Verzekerd bedrag VAK      € 10611</v>
+      </c>
+      <c r="G10" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>10611</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E11" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Eigen bijdrage VAK</v>
+      </c>
+      <c r="B12" t="str">
+        <v>€ 13616</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>08 Eigen bijdrage VAK        € 13616</v>
+      </c>
+      <c r="G12" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>13616</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E13" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Militair</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Ja                                                      81005</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>09 Militair                  Ja                                                      81005</v>
+      </c>
+      <c r="G14" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>81005</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E15" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Lid van militaire vakbond</v>
+      </c>
+      <c r="B16" t="str">
+        <v>80991                                                       81005</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>10 Lid van militaire vakbond 80991                                                       81005</v>
+      </c>
+      <c r="G16" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v>80991</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E17" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>81005</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E18" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Onroerend goed object 1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>80079 80095 86578</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>12 Onroerend goed object 1   80079 80095 86578</v>
+      </c>
+      <c r="G19" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>80079</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E20" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v>80095</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E21" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>86578</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E22" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B23" t="str">
+        <v>80084 80090</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>13                           80084 80090</v>
+      </c>
+      <c r="G23" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>80084</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E24" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>80090</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E25" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Dekkingscombinatie</v>
+      </c>
+      <c r="B26" t="str">
+        <v>80732</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>14 Dekkingscombinatie        80732</v>
+      </c>
+      <c r="G26" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>80732</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E27" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Herbouwwaarde</v>
+      </c>
+      <c r="B28" t="str">
+        <v>€ 80008</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v>15 Herbouwwaarde             € 80008</v>
+      </c>
+      <c r="G28" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>80008</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E29" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Huurwaarde</v>
+      </c>
+      <c r="B30" t="str">
+        <v>€ 84818</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>16 Huurwaarde                € 84818</v>
+      </c>
+      <c r="G30" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v>84818</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E31" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B32" t="str">
+        <v>80079</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>17                                                                                   80079</v>
+      </c>
+      <c r="G32" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v>80079</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E33" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Onroerend goed object 2</v>
+      </c>
+      <c r="B34" t="str">
+        <v>80077 80093 86451</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>18 Onroerend goed object 2   80077 80093 86451</v>
+      </c>
+      <c r="G34" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>80077</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E35" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v>80093</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E36" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>86451</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E37" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B38" t="str">
+        <v>80082 80088</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>19                           80082 80088</v>
+      </c>
+      <c r="G38" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v>80082</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E39" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v>80088</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E40" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Dekkingscombinatie</v>
+      </c>
+      <c r="B41" t="str">
+        <v>80733</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>20 Dekkingscombinatie        80733</v>
+      </c>
+      <c r="G41" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v>80733</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E42" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Herbouwwaarde</v>
+      </c>
+      <c r="B43" t="str">
+        <v>€ 80735</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>21 Herbouwwaarde             € 80735</v>
+      </c>
+      <c r="G43" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v>80735</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E44" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Huurwaarde</v>
+      </c>
+      <c r="B45" t="str">
+        <v>€ 80737</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>22 Huurwaarde                € 80737</v>
+      </c>
+      <c r="G45" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v>80737</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E46" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B47" t="str">
+        <v>80077</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v>23                                                                                   80077</v>
+      </c>
+      <c r="G47" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v>80077</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E48" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Onroerend goed object 3</v>
+      </c>
+      <c r="B49" t="str">
+        <v>80078 80094 86577</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v>24 Onroerend goed object 3   80078 80094 86577</v>
+      </c>
+      <c r="G49" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v>80078</v>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E50" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v>80094</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E51" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v>86577</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E52" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B53" t="str">
+        <v>80083 80089</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v>25                           80083 80089</v>
+      </c>
+      <c r="G53" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v>80083</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E54" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v>80089</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E55" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Dekkingscombinatie</v>
+      </c>
+      <c r="B56" t="str">
+        <v>80734</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v>26 Dekkingscombinatie        80734</v>
+      </c>
+      <c r="G56" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v>80734</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E57" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Herbouwwaarde</v>
+      </c>
+      <c r="B58" t="str">
+        <v>€ 80736</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v>27 Herbouwwaarde             € 80736</v>
+      </c>
+      <c r="G58" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v>80736</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E59" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Huurwaarde</v>
+      </c>
+      <c r="B60" t="str">
+        <v>€ 80738</v>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v>28 Huurwaarde                € 80738</v>
+      </c>
+      <c r="G60" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <v>80738</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E61" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B62" t="str">
+        <v>80078</v>
+      </c>
+      <c r="C62" t="str">
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <v>29                                                                                   80078</v>
+      </c>
+      <c r="G62" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v/>
+      </c>
+      <c r="B63" t="str">
+        <v>80078</v>
+      </c>
+      <c r="C63" t="str">
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E63" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Geschil</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <v>30 Geschil                   Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
+      </c>
+      <c r="G64" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B65" t="str">
+        <v>contact opnemen met:</v>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <v>31                           contact opnemen met:</v>
+      </c>
+      <c r="G65" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B66" t="str">
+        <v>ARAG Rechtsbijstand</v>
+      </c>
+      <c r="C66" t="str">
+        <v/>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <v>32                           ARAG Rechtsbijstand</v>
+      </c>
+      <c r="G66" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B67" t="str">
+        <v>T (033) - 434 23 42 of via www.ARAG.nl</v>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <v>33                           T (033) - 434 23 42 of via www.ARAG.nl</v>
+      </c>
+      <c r="G67" t="str">
+        <v>x</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G67"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/formulieren/09000.xlsx
+++ b/formulieren/09000.xlsx
@@ -10,8 +10,8 @@
     <sheet name="09015" sheetId="5" r:id="rId5"/>
     <sheet name="09060" sheetId="6" r:id="rId6"/>
     <sheet name="09080" sheetId="7" r:id="rId7"/>
-    <sheet name="09810" sheetId="8" r:id="rId8"/>
-    <sheet name="09081" sheetId="9" r:id="rId9"/>
+    <sheet name="09081" sheetId="8" r:id="rId8"/>
+    <sheet name="09810" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -383,14 +383,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -916,10 +916,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>^</v>
+        <v>n/a</v>
       </c>
       <c r="B17" t="str">
-        <v>10631 10632 geboren 10630</v>
+        <v>10631 10632 10630 geboren 10633</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>^,</v>
+        <v>n/a</v>
       </c>
       <c r="B36" t="str">
-        <v>80078 te 80083</v>
+        <v>80078, 80083 te 80089</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>^,</v>
+        <v>n/a</v>
       </c>
       <c r="B41" t="str">
-        <v>80079 te 80084</v>
+        <v>80079, 80084 te 80090</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>^,</v>
+        <v>n/a</v>
       </c>
       <c r="B17" t="str">
-        <v>80078 te 80083</v>
+        <v>80078, 80083 te 80089</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -9413,6 +9413,1561 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>regel template</v>
+      </c>
+      <c r="G1" t="str">
+        <v>A327</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Verzekerde Modules</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>_x000c_35 Verzekerde Modules</v>
+      </c>
+      <c r="G2" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Soort verzekering</v>
+      </c>
+      <c r="B3" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>02 Soort verzekering         10142</v>
+      </c>
+      <c r="G3" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E4" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Gezinssamenstelling</v>
+      </c>
+      <c r="B5" t="str">
+        <v>10694</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>03 Gezinssamenstelling       10694</v>
+      </c>
+      <c r="G5" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>10694</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E6" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Aantal artsen</v>
+      </c>
+      <c r="B7" t="str">
+        <v>13610</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>04 Aantal artsen             13610</v>
+      </c>
+      <c r="G7" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>13610</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E8" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Vrije advocaat keuze (VAK)</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>06                           Vrije advocaat keuze (VAK)</v>
+      </c>
+      <c r="G9" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Verzekerd bedrag VAK</v>
+      </c>
+      <c r="B10" t="str">
+        <v>€ 10611</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>07 Verzekerd bedrag VAK      € 10611</v>
+      </c>
+      <c r="G10" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>10611</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E11" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Eigen bijdrage VAK</v>
+      </c>
+      <c r="B12" t="str">
+        <v>€ 13616</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>08 Eigen bijdrage VAK        € 13616</v>
+      </c>
+      <c r="G12" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>13616</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E13" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Militair</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Ja                                                      81005</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>09 Militair                  Ja                                                      81005</v>
+      </c>
+      <c r="G14" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>81005</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E15" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Lid van militaire vakbond</v>
+      </c>
+      <c r="B16" t="str">
+        <v>80991                                                       81005</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>10 Lid van militaire vakbond 80991                                                       81005</v>
+      </c>
+      <c r="G16" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v>80991</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E17" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>81005</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E18" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Onroerend goed object 1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>80079 80095 86578</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>12 Onroerend goed object 1   80079 80095 86578</v>
+      </c>
+      <c r="G19" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>80079</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E20" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v>80095</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E21" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>86578</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E22" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B23" t="str">
+        <v>80084 80090</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>13                           80084 80090</v>
+      </c>
+      <c r="G23" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>80084</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E24" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>80090</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E25" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Dekkingscombinatie</v>
+      </c>
+      <c r="B26" t="str">
+        <v>80732</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>14 Dekkingscombinatie        80732</v>
+      </c>
+      <c r="G26" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>80732</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E27" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Herbouwwaarde</v>
+      </c>
+      <c r="B28" t="str">
+        <v>€ 80008</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v>15 Herbouwwaarde             € 80008</v>
+      </c>
+      <c r="G28" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>80008</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E29" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Huurwaarde</v>
+      </c>
+      <c r="B30" t="str">
+        <v>€ 84818</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>16 Huurwaarde                € 84818</v>
+      </c>
+      <c r="G30" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v>84818</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E31" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B32" t="str">
+        <v>80079</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>17                                                                                   80079</v>
+      </c>
+      <c r="G32" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v>80079</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E33" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Onroerend goed object 2</v>
+      </c>
+      <c r="B34" t="str">
+        <v>80077 80093 86451</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>18 Onroerend goed object 2   80077 80093 86451</v>
+      </c>
+      <c r="G34" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>80077</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E35" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v>80093</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E36" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>86451</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E37" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B38" t="str">
+        <v>80082 80088</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>19                           80082 80088</v>
+      </c>
+      <c r="G38" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v>80082</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E39" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v>80088</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E40" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Dekkingscombinatie</v>
+      </c>
+      <c r="B41" t="str">
+        <v>80733</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>20 Dekkingscombinatie        80733</v>
+      </c>
+      <c r="G41" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v>80733</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E42" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Herbouwwaarde</v>
+      </c>
+      <c r="B43" t="str">
+        <v>€ 80735</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>21 Herbouwwaarde             € 80735</v>
+      </c>
+      <c r="G43" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v>80735</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E44" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Huurwaarde</v>
+      </c>
+      <c r="B45" t="str">
+        <v>€ 80737</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>22 Huurwaarde                € 80737</v>
+      </c>
+      <c r="G45" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v>80737</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E46" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B47" t="str">
+        <v>80077</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v>23                                                                                   80077</v>
+      </c>
+      <c r="G47" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v>80077</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E48" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Onroerend goed object 3</v>
+      </c>
+      <c r="B49" t="str">
+        <v>80078 80094 86577</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v>24 Onroerend goed object 3   80078 80094 86577</v>
+      </c>
+      <c r="G49" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v>80078</v>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E50" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v>80094</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E51" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v>86577</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E52" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B53" t="str">
+        <v>80083 80089</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v>25                           80083 80089</v>
+      </c>
+      <c r="G53" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v>80083</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E54" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v>80089</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E55" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Dekkingscombinatie</v>
+      </c>
+      <c r="B56" t="str">
+        <v>80734</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v>26 Dekkingscombinatie        80734</v>
+      </c>
+      <c r="G56" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v>80734</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E57" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Herbouwwaarde</v>
+      </c>
+      <c r="B58" t="str">
+        <v>€ 80736</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v>27 Herbouwwaarde             € 80736</v>
+      </c>
+      <c r="G58" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v>80736</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E59" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Huurwaarde</v>
+      </c>
+      <c r="B60" t="str">
+        <v>€ 80738</v>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v>28 Huurwaarde                € 80738</v>
+      </c>
+      <c r="G60" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <v>80738</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E61" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B62" t="str">
+        <v>80078</v>
+      </c>
+      <c r="C62" t="str">
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <v>29                                                                                   80078</v>
+      </c>
+      <c r="G62" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v/>
+      </c>
+      <c r="B63" t="str">
+        <v>80078</v>
+      </c>
+      <c r="C63" t="str">
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E63" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Geschil</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <v>30 Geschil                   Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
+      </c>
+      <c r="G64" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B65" t="str">
+        <v>contact opnemen met:</v>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <v>31                           contact opnemen met:</v>
+      </c>
+      <c r="G65" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B66" t="str">
+        <v>ARAG Rechtsbijstand</v>
+      </c>
+      <c r="C66" t="str">
+        <v/>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <v>32                           ARAG Rechtsbijstand</v>
+      </c>
+      <c r="G66" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B67" t="str">
+        <v>T (033) - 434 23 42 of via www.ARAG.nl</v>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <v>33                           T (033) - 434 23 42 of via www.ARAG.nl</v>
+      </c>
+      <c r="G67" t="str">
+        <v>x</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G67"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
@@ -9561,1559 +11116,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>omschrijving</v>
-      </c>
-      <c r="B1" t="str">
-        <v>inhoud</v>
-      </c>
-      <c r="C1" t="str">
-        <v>weergave</v>
-      </c>
-      <c r="D1" t="str">
-        <v>uitlijnen</v>
-      </c>
-      <c r="E1" t="str">
-        <v>regel verwijderen</v>
-      </c>
-      <c r="F1" t="str">
-        <v>regel template</v>
-      </c>
-      <c r="G1" t="str">
-        <v>A327</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Verzekerde Modules</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v>_x000c_35 Verzekerde Modules</v>
-      </c>
-      <c r="G2" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Soort verzekering</v>
-      </c>
-      <c r="B3" t="str">
-        <v>10142</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v>02 Soort verzekering         10142</v>
-      </c>
-      <c r="G3" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v>10142</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E4" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Gezinssamenstelling</v>
-      </c>
-      <c r="B5" t="str">
-        <v>10694</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v>03 Gezinssamenstelling       10694</v>
-      </c>
-      <c r="G5" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v>10694</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E6" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Aantal artsen</v>
-      </c>
-      <c r="B7" t="str">
-        <v>13610</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <v>04 Aantal artsen             13610</v>
-      </c>
-      <c r="G7" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v>13610</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E8" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Vrije advocaat keuze (VAK)</v>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <v>06                           Vrije advocaat keuze (VAK)</v>
-      </c>
-      <c r="G9" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Verzekerd bedrag VAK</v>
-      </c>
-      <c r="B10" t="str">
-        <v>€ 10611</v>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v>07 Verzekerd bedrag VAK      € 10611</v>
-      </c>
-      <c r="G10" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v/>
-      </c>
-      <c r="B11" t="str">
-        <v>10611</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E11" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Eigen bijdrage VAK</v>
-      </c>
-      <c r="B12" t="str">
-        <v>€ 13616</v>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <v>08 Eigen bijdrage VAK        € 13616</v>
-      </c>
-      <c r="G12" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-      <c r="B13" t="str">
-        <v>13616</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E13" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Militair</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Ja                                                      81005</v>
-      </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v>09 Militair                  Ja                                                      81005</v>
-      </c>
-      <c r="G14" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v/>
-      </c>
-      <c r="B15" t="str">
-        <v>81005</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E15" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Lid van militaire vakbond</v>
-      </c>
-      <c r="B16" t="str">
-        <v>80991                                                       81005</v>
-      </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v>10 Lid van militaire vakbond 80991                                                       81005</v>
-      </c>
-      <c r="G16" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v/>
-      </c>
-      <c r="B17" t="str">
-        <v>80991</v>
-      </c>
-      <c r="C17" t="str">
-        <v/>
-      </c>
-      <c r="D17" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E17" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v/>
-      </c>
-      <c r="B18" t="str">
-        <v>81005</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E18" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Onroerend goed object 1</v>
-      </c>
-      <c r="B19" t="str">
-        <v>80079 80095 86578</v>
-      </c>
-      <c r="C19" t="str">
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <v>12 Onroerend goed object 1   80079 80095 86578</v>
-      </c>
-      <c r="G19" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v/>
-      </c>
-      <c r="B20" t="str">
-        <v>80079</v>
-      </c>
-      <c r="C20" t="str">
-        <v/>
-      </c>
-      <c r="D20" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E20" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v/>
-      </c>
-      <c r="B21" t="str">
-        <v>80095</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D21" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E21" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F21" t="str">
-        <v/>
-      </c>
-      <c r="G21" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v/>
-      </c>
-      <c r="B22" t="str">
-        <v>86578</v>
-      </c>
-      <c r="C22" t="str">
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E22" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B23" t="str">
-        <v>80084 80090</v>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v>13                           80084 80090</v>
-      </c>
-      <c r="G23" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v/>
-      </c>
-      <c r="B24" t="str">
-        <v>80084</v>
-      </c>
-      <c r="C24" t="str">
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E24" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v/>
-      </c>
-      <c r="B25" t="str">
-        <v>80090</v>
-      </c>
-      <c r="C25" t="str">
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E25" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Dekkingscombinatie</v>
-      </c>
-      <c r="B26" t="str">
-        <v>80732</v>
-      </c>
-      <c r="C26" t="str">
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <v>14 Dekkingscombinatie        80732</v>
-      </c>
-      <c r="G26" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v/>
-      </c>
-      <c r="B27" t="str">
-        <v>80732</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E27" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F27" t="str">
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Herbouwwaarde</v>
-      </c>
-      <c r="B28" t="str">
-        <v>€ 80008</v>
-      </c>
-      <c r="C28" t="str">
-        <v/>
-      </c>
-      <c r="D28" t="str">
-        <v/>
-      </c>
-      <c r="E28" t="str">
-        <v/>
-      </c>
-      <c r="F28" t="str">
-        <v>15 Herbouwwaarde             € 80008</v>
-      </c>
-      <c r="G28" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v/>
-      </c>
-      <c r="B29" t="str">
-        <v>80008</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D29" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E29" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Huurwaarde</v>
-      </c>
-      <c r="B30" t="str">
-        <v>€ 84818</v>
-      </c>
-      <c r="C30" t="str">
-        <v/>
-      </c>
-      <c r="D30" t="str">
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <v/>
-      </c>
-      <c r="F30" t="str">
-        <v>16 Huurwaarde                € 84818</v>
-      </c>
-      <c r="G30" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v/>
-      </c>
-      <c r="B31" t="str">
-        <v>84818</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D31" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E31" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B32" t="str">
-        <v>80079</v>
-      </c>
-      <c r="C32" t="str">
-        <v/>
-      </c>
-      <c r="D32" t="str">
-        <v/>
-      </c>
-      <c r="E32" t="str">
-        <v/>
-      </c>
-      <c r="F32" t="str">
-        <v>17                                                                                   80079</v>
-      </c>
-      <c r="G32" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v/>
-      </c>
-      <c r="B33" t="str">
-        <v>80079</v>
-      </c>
-      <c r="C33" t="str">
-        <v/>
-      </c>
-      <c r="D33" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E33" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F33" t="str">
-        <v/>
-      </c>
-      <c r="G33" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Onroerend goed object 2</v>
-      </c>
-      <c r="B34" t="str">
-        <v>80077 80093 86451</v>
-      </c>
-      <c r="C34" t="str">
-        <v/>
-      </c>
-      <c r="D34" t="str">
-        <v/>
-      </c>
-      <c r="E34" t="str">
-        <v/>
-      </c>
-      <c r="F34" t="str">
-        <v>18 Onroerend goed object 2   80077 80093 86451</v>
-      </c>
-      <c r="G34" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v/>
-      </c>
-      <c r="B35" t="str">
-        <v>80077</v>
-      </c>
-      <c r="C35" t="str">
-        <v/>
-      </c>
-      <c r="D35" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E35" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F35" t="str">
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v/>
-      </c>
-      <c r="B36" t="str">
-        <v>80093</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D36" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E36" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F36" t="str">
-        <v/>
-      </c>
-      <c r="G36" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v/>
-      </c>
-      <c r="B37" t="str">
-        <v>86451</v>
-      </c>
-      <c r="C37" t="str">
-        <v/>
-      </c>
-      <c r="D37" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E37" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F37" t="str">
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B38" t="str">
-        <v>80082 80088</v>
-      </c>
-      <c r="C38" t="str">
-        <v/>
-      </c>
-      <c r="D38" t="str">
-        <v/>
-      </c>
-      <c r="E38" t="str">
-        <v/>
-      </c>
-      <c r="F38" t="str">
-        <v>19                           80082 80088</v>
-      </c>
-      <c r="G38" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v/>
-      </c>
-      <c r="B39" t="str">
-        <v>80082</v>
-      </c>
-      <c r="C39" t="str">
-        <v/>
-      </c>
-      <c r="D39" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E39" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F39" t="str">
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v/>
-      </c>
-      <c r="B40" t="str">
-        <v>80088</v>
-      </c>
-      <c r="C40" t="str">
-        <v/>
-      </c>
-      <c r="D40" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E40" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F40" t="str">
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>Dekkingscombinatie</v>
-      </c>
-      <c r="B41" t="str">
-        <v>80733</v>
-      </c>
-      <c r="C41" t="str">
-        <v/>
-      </c>
-      <c r="D41" t="str">
-        <v/>
-      </c>
-      <c r="E41" t="str">
-        <v/>
-      </c>
-      <c r="F41" t="str">
-        <v>20 Dekkingscombinatie        80733</v>
-      </c>
-      <c r="G41" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v/>
-      </c>
-      <c r="B42" t="str">
-        <v>80733</v>
-      </c>
-      <c r="C42" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D42" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E42" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F42" t="str">
-        <v/>
-      </c>
-      <c r="G42" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Herbouwwaarde</v>
-      </c>
-      <c r="B43" t="str">
-        <v>€ 80735</v>
-      </c>
-      <c r="C43" t="str">
-        <v/>
-      </c>
-      <c r="D43" t="str">
-        <v/>
-      </c>
-      <c r="E43" t="str">
-        <v/>
-      </c>
-      <c r="F43" t="str">
-        <v>21 Herbouwwaarde             € 80735</v>
-      </c>
-      <c r="G43" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v/>
-      </c>
-      <c r="B44" t="str">
-        <v>80735</v>
-      </c>
-      <c r="C44" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D44" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E44" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F44" t="str">
-        <v/>
-      </c>
-      <c r="G44" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>Huurwaarde</v>
-      </c>
-      <c r="B45" t="str">
-        <v>€ 80737</v>
-      </c>
-      <c r="C45" t="str">
-        <v/>
-      </c>
-      <c r="D45" t="str">
-        <v/>
-      </c>
-      <c r="E45" t="str">
-        <v/>
-      </c>
-      <c r="F45" t="str">
-        <v>22 Huurwaarde                € 80737</v>
-      </c>
-      <c r="G45" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v/>
-      </c>
-      <c r="B46" t="str">
-        <v>80737</v>
-      </c>
-      <c r="C46" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D46" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E46" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F46" t="str">
-        <v/>
-      </c>
-      <c r="G46" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B47" t="str">
-        <v>80077</v>
-      </c>
-      <c r="C47" t="str">
-        <v/>
-      </c>
-      <c r="D47" t="str">
-        <v/>
-      </c>
-      <c r="E47" t="str">
-        <v/>
-      </c>
-      <c r="F47" t="str">
-        <v>23                                                                                   80077</v>
-      </c>
-      <c r="G47" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v/>
-      </c>
-      <c r="B48" t="str">
-        <v>80077</v>
-      </c>
-      <c r="C48" t="str">
-        <v/>
-      </c>
-      <c r="D48" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E48" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F48" t="str">
-        <v/>
-      </c>
-      <c r="G48" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Onroerend goed object 3</v>
-      </c>
-      <c r="B49" t="str">
-        <v>80078 80094 86577</v>
-      </c>
-      <c r="C49" t="str">
-        <v/>
-      </c>
-      <c r="D49" t="str">
-        <v/>
-      </c>
-      <c r="E49" t="str">
-        <v/>
-      </c>
-      <c r="F49" t="str">
-        <v>24 Onroerend goed object 3   80078 80094 86577</v>
-      </c>
-      <c r="G49" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v/>
-      </c>
-      <c r="B50" t="str">
-        <v>80078</v>
-      </c>
-      <c r="C50" t="str">
-        <v/>
-      </c>
-      <c r="D50" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E50" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F50" t="str">
-        <v/>
-      </c>
-      <c r="G50" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v/>
-      </c>
-      <c r="B51" t="str">
-        <v>80094</v>
-      </c>
-      <c r="C51" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D51" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E51" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F51" t="str">
-        <v/>
-      </c>
-      <c r="G51" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v/>
-      </c>
-      <c r="B52" t="str">
-        <v>86577</v>
-      </c>
-      <c r="C52" t="str">
-        <v/>
-      </c>
-      <c r="D52" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E52" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F52" t="str">
-        <v/>
-      </c>
-      <c r="G52" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B53" t="str">
-        <v>80083 80089</v>
-      </c>
-      <c r="C53" t="str">
-        <v/>
-      </c>
-      <c r="D53" t="str">
-        <v/>
-      </c>
-      <c r="E53" t="str">
-        <v/>
-      </c>
-      <c r="F53" t="str">
-        <v>25                           80083 80089</v>
-      </c>
-      <c r="G53" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v/>
-      </c>
-      <c r="B54" t="str">
-        <v>80083</v>
-      </c>
-      <c r="C54" t="str">
-        <v/>
-      </c>
-      <c r="D54" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E54" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F54" t="str">
-        <v/>
-      </c>
-      <c r="G54" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v/>
-      </c>
-      <c r="B55" t="str">
-        <v>80089</v>
-      </c>
-      <c r="C55" t="str">
-        <v/>
-      </c>
-      <c r="D55" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E55" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F55" t="str">
-        <v/>
-      </c>
-      <c r="G55" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>Dekkingscombinatie</v>
-      </c>
-      <c r="B56" t="str">
-        <v>80734</v>
-      </c>
-      <c r="C56" t="str">
-        <v/>
-      </c>
-      <c r="D56" t="str">
-        <v/>
-      </c>
-      <c r="E56" t="str">
-        <v/>
-      </c>
-      <c r="F56" t="str">
-        <v>26 Dekkingscombinatie        80734</v>
-      </c>
-      <c r="G56" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v/>
-      </c>
-      <c r="B57" t="str">
-        <v>80734</v>
-      </c>
-      <c r="C57" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D57" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E57" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F57" t="str">
-        <v/>
-      </c>
-      <c r="G57" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>Herbouwwaarde</v>
-      </c>
-      <c r="B58" t="str">
-        <v>€ 80736</v>
-      </c>
-      <c r="C58" t="str">
-        <v/>
-      </c>
-      <c r="D58" t="str">
-        <v/>
-      </c>
-      <c r="E58" t="str">
-        <v/>
-      </c>
-      <c r="F58" t="str">
-        <v>27 Herbouwwaarde             € 80736</v>
-      </c>
-      <c r="G58" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v/>
-      </c>
-      <c r="B59" t="str">
-        <v>80736</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D59" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E59" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F59" t="str">
-        <v/>
-      </c>
-      <c r="G59" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Huurwaarde</v>
-      </c>
-      <c r="B60" t="str">
-        <v>€ 80738</v>
-      </c>
-      <c r="C60" t="str">
-        <v/>
-      </c>
-      <c r="D60" t="str">
-        <v/>
-      </c>
-      <c r="E60" t="str">
-        <v/>
-      </c>
-      <c r="F60" t="str">
-        <v>28 Huurwaarde                € 80738</v>
-      </c>
-      <c r="G60" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v/>
-      </c>
-      <c r="B61" t="str">
-        <v>80738</v>
-      </c>
-      <c r="C61" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D61" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E61" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F61" t="str">
-        <v/>
-      </c>
-      <c r="G61" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B62" t="str">
-        <v>80078</v>
-      </c>
-      <c r="C62" t="str">
-        <v/>
-      </c>
-      <c r="D62" t="str">
-        <v/>
-      </c>
-      <c r="E62" t="str">
-        <v/>
-      </c>
-      <c r="F62" t="str">
-        <v>29                                                                                   80078</v>
-      </c>
-      <c r="G62" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v/>
-      </c>
-      <c r="B63" t="str">
-        <v>80078</v>
-      </c>
-      <c r="C63" t="str">
-        <v/>
-      </c>
-      <c r="D63" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E63" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F63" t="str">
-        <v/>
-      </c>
-      <c r="G63" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Geschil</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
-      </c>
-      <c r="C64" t="str">
-        <v/>
-      </c>
-      <c r="D64" t="str">
-        <v/>
-      </c>
-      <c r="E64" t="str">
-        <v/>
-      </c>
-      <c r="F64" t="str">
-        <v>30 Geschil                   Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
-      </c>
-      <c r="G64" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B65" t="str">
-        <v>contact opnemen met:</v>
-      </c>
-      <c r="C65" t="str">
-        <v/>
-      </c>
-      <c r="D65" t="str">
-        <v/>
-      </c>
-      <c r="E65" t="str">
-        <v/>
-      </c>
-      <c r="F65" t="str">
-        <v>31                           contact opnemen met:</v>
-      </c>
-      <c r="G65" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B66" t="str">
-        <v>ARAG Rechtsbijstand</v>
-      </c>
-      <c r="C66" t="str">
-        <v/>
-      </c>
-      <c r="D66" t="str">
-        <v/>
-      </c>
-      <c r="E66" t="str">
-        <v/>
-      </c>
-      <c r="F66" t="str">
-        <v>32                           ARAG Rechtsbijstand</v>
-      </c>
-      <c r="G66" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B67" t="str">
-        <v>T (033) - 434 23 42 of via www.ARAG.nl</v>
-      </c>
-      <c r="C67" t="str">
-        <v/>
-      </c>
-      <c r="D67" t="str">
-        <v/>
-      </c>
-      <c r="E67" t="str">
-        <v/>
-      </c>
-      <c r="F67" t="str">
-        <v>33                           T (033) - 434 23 42 of via www.ARAG.nl</v>
-      </c>
-      <c r="G67" t="str">
-        <v>x</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G67"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/formulieren/09000.xlsx
+++ b/formulieren/09000.xlsx
@@ -10,8 +10,8 @@
     <sheet name="09015" sheetId="5" r:id="rId5"/>
     <sheet name="09060" sheetId="6" r:id="rId6"/>
     <sheet name="09080" sheetId="7" r:id="rId7"/>
-    <sheet name="09081" sheetId="8" r:id="rId8"/>
-    <sheet name="09810" sheetId="9" r:id="rId9"/>
+    <sheet name="09810" sheetId="8" r:id="rId8"/>
+    <sheet name="09081" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -383,14 +383,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -916,10 +916,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>n/a</v>
+        <v>^</v>
       </c>
       <c r="B17" t="str">
-        <v>10631 10632 10630 geboren 10633</v>
+        <v>10631 10632 geboren 10630</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>n/a</v>
+        <v>^,</v>
       </c>
       <c r="B36" t="str">
-        <v>80078, 80083 te 80089</v>
+        <v>80078 te 80083</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>n/a</v>
+        <v>^,</v>
       </c>
       <c r="B41" t="str">
-        <v>80079, 80084 te 80090</v>
+        <v>80079 te 80084</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>n/a</v>
+        <v>^,</v>
       </c>
       <c r="B17" t="str">
-        <v>80078, 80083 te 80089</v>
+        <v>80078 te 80083</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -9413,6 +9413,158 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>regel template</v>
+      </c>
+      <c r="G1" t="str">
+        <v>D323</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Soort verzekering</v>
+      </c>
+      <c r="B2" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>02 Soort verzekering         10142</v>
+      </c>
+      <c r="G2" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E3" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Gezinssamenstelling</v>
+      </c>
+      <c r="B4" t="str">
+        <v>10694</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>03 Gezinssamenstelling       10694</v>
+      </c>
+      <c r="G4" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v>10694</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E5" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Verzekerde rubrieken</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>05 Verzekerde rubrieken</v>
+      </c>
+      <c r="G6" t="str">
+        <v>x</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
@@ -9443,10 +9595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Verzekerde Modules</v>
+        <v>Soort verzekering</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>10142</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -9458,7 +9610,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>_x000c_35 Verzekerde Modules</v>
+        <v>02 Soort verzekering         10142</v>
       </c>
       <c r="G2" t="str">
         <v>x</v>
@@ -9466,22 +9618,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Soort verzekering</v>
+        <v/>
       </c>
       <c r="B3" t="str">
         <v>10142</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F3" t="str">
-        <v>02 Soort verzekering         10142</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <v>x</v>
@@ -9489,22 +9641,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Gezinssamenstelling</v>
       </c>
       <c r="B4" t="str">
-        <v>10142</v>
+        <v>10694</v>
       </c>
       <c r="C4" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>03 Gezinssamenstelling       10694</v>
       </c>
       <c r="G4" t="str">
         <v>x</v>
@@ -9512,22 +9664,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Gezinssamenstelling</v>
+        <v/>
       </c>
       <c r="B5" t="str">
         <v>10694</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F5" t="str">
-        <v>03 Gezinssamenstelling       10694</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <v>x</v>
@@ -9535,22 +9687,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Aantal artsen</v>
       </c>
       <c r="B6" t="str">
-        <v>10694</v>
+        <v>13610</v>
       </c>
       <c r="C6" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>04 Aantal artsen             13610</v>
       </c>
       <c r="G6" t="str">
         <v>x</v>
@@ -9558,22 +9710,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Aantal artsen</v>
+        <v/>
       </c>
       <c r="B7" t="str">
         <v>13610</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F7" t="str">
-        <v>04 Aantal artsen             13610</v>
+        <v/>
       </c>
       <c r="G7" t="str">
         <v>x</v>
@@ -9581,22 +9733,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B8" t="str">
-        <v>13610</v>
+        <v>Vrije advocaat keuze (VAK)</v>
       </c>
       <c r="C8" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>06                           Vrije advocaat keuze (VAK)</v>
       </c>
       <c r="G8" t="str">
         <v>x</v>
@@ -9604,10 +9756,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>n/a</v>
+        <v>Verzekerd bedrag VAK</v>
       </c>
       <c r="B9" t="str">
-        <v>Vrije advocaat keuze (VAK)</v>
+        <v>€ 10611</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -9619,7 +9771,7 @@
         <v/>
       </c>
       <c r="F9" t="str">
-        <v>06                           Vrije advocaat keuze (VAK)</v>
+        <v>07 Verzekerd bedrag VAK      € 10611</v>
       </c>
       <c r="G9" t="str">
         <v>x</v>
@@ -9627,22 +9779,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Verzekerd bedrag VAK</v>
+        <v/>
       </c>
       <c r="B10" t="str">
-        <v>€ 10611</v>
+        <v>10611</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F10" t="str">
-        <v>07 Verzekerd bedrag VAK      € 10611</v>
+        <v/>
       </c>
       <c r="G10" t="str">
         <v>x</v>
@@ -9650,22 +9802,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>Eigen bijdrage VAK</v>
       </c>
       <c r="B11" t="str">
-        <v>10611</v>
+        <v>€ 13616</v>
       </c>
       <c r="C11" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>08 Eigen bijdrage VAK        € 13616</v>
       </c>
       <c r="G11" t="str">
         <v>x</v>
@@ -9673,22 +9825,22 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Eigen bijdrage VAK</v>
+        <v/>
       </c>
       <c r="B12" t="str">
-        <v>€ 13616</v>
+        <v>13616</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F12" t="str">
-        <v>08 Eigen bijdrage VAK        € 13616</v>
+        <v/>
       </c>
       <c r="G12" t="str">
         <v>x</v>
@@ -9696,22 +9848,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v/>
+        <v>Militair</v>
       </c>
       <c r="B13" t="str">
-        <v>13616</v>
+        <v>Ja                                                      81005</v>
       </c>
       <c r="C13" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>09 Militair                  Ja                                                      81005</v>
       </c>
       <c r="G13" t="str">
         <v>x</v>
@@ -9719,22 +9871,22 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Militair</v>
+        <v/>
       </c>
       <c r="B14" t="str">
-        <v>Ja                                                      81005</v>
+        <v>81005</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F14" t="str">
-        <v>09 Militair                  Ja                                                      81005</v>
+        <v/>
       </c>
       <c r="G14" t="str">
         <v>x</v>
@@ -9742,22 +9894,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v/>
+        <v>Lid van militaire vakbond</v>
       </c>
       <c r="B15" t="str">
-        <v>81005</v>
+        <v>80991                                                       81005</v>
       </c>
       <c r="C15" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D15" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>10 Lid van militaire vakbond 80991                                                       81005</v>
       </c>
       <c r="G15" t="str">
         <v>x</v>
@@ -9765,22 +9917,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Lid van militaire vakbond</v>
+        <v/>
       </c>
       <c r="B16" t="str">
-        <v>80991                                                       81005</v>
+        <v>80991</v>
       </c>
       <c r="C16" t="str">
         <v/>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F16" t="str">
-        <v>10 Lid van militaire vakbond 80991                                                       81005</v>
+        <v/>
       </c>
       <c r="G16" t="str">
         <v>x</v>
@@ -9791,10 +9943,10 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>80991</v>
+        <v>81005</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D17" t="str">
         <v>Links</v>
@@ -9811,22 +9963,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v/>
+        <v>Onroerend goed object 1</v>
       </c>
       <c r="B18" t="str">
-        <v>81005</v>
+        <v>80079 80095 86578</v>
       </c>
       <c r="C18" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D18" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v>12 Onroerend goed object 1   80079 80095 86578</v>
       </c>
       <c r="G18" t="str">
         <v>x</v>
@@ -9834,22 +9986,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Onroerend goed object 1</v>
+        <v/>
       </c>
       <c r="B19" t="str">
-        <v>80079 80095 86578</v>
+        <v>80079</v>
       </c>
       <c r="C19" t="str">
         <v/>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F19" t="str">
-        <v>12 Onroerend goed object 1   80079 80095 86578</v>
+        <v/>
       </c>
       <c r="G19" t="str">
         <v>x</v>
@@ -9860,16 +10012,16 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>80079</v>
+        <v>80095</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D20" t="str">
         <v>Links</v>
       </c>
       <c r="E20" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F20" t="str">
         <v/>
@@ -9883,10 +10035,10 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>80095</v>
+        <v>86578</v>
       </c>
       <c r="C21" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D21" t="str">
         <v>Links</v>
@@ -9903,22 +10055,22 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B22" t="str">
-        <v>86578</v>
+        <v>80084 80090</v>
       </c>
       <c r="C22" t="str">
         <v/>
       </c>
       <c r="D22" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v>13                           80084 80090</v>
       </c>
       <c r="G22" t="str">
         <v>x</v>
@@ -9926,22 +10078,22 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B23" t="str">
-        <v>80084 80090</v>
+        <v>80084</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F23" t="str">
-        <v>13                           80084 80090</v>
+        <v/>
       </c>
       <c r="G23" t="str">
         <v>x</v>
@@ -9952,7 +10104,7 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>80084</v>
+        <v>80090</v>
       </c>
       <c r="C24" t="str">
         <v/>
@@ -9961,7 +10113,7 @@
         <v>Links</v>
       </c>
       <c r="E24" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F24" t="str">
         <v/>
@@ -9972,22 +10124,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v/>
+        <v>Dekkingscombinatie</v>
       </c>
       <c r="B25" t="str">
-        <v>80090</v>
+        <v>80732</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F25" t="str">
-        <v/>
+        <v>14 Dekkingscombinatie        80732</v>
       </c>
       <c r="G25" t="str">
         <v>x</v>
@@ -9995,22 +10147,22 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Dekkingscombinatie</v>
+        <v/>
       </c>
       <c r="B26" t="str">
         <v>80732</v>
       </c>
       <c r="C26" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E26" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F26" t="str">
-        <v>14 Dekkingscombinatie        80732</v>
+        <v/>
       </c>
       <c r="G26" t="str">
         <v>x</v>
@@ -10018,22 +10170,22 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v/>
+        <v>Herbouwwaarde</v>
       </c>
       <c r="B27" t="str">
-        <v>80732</v>
+        <v>€ 80008</v>
       </c>
       <c r="C27" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D27" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E27" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F27" t="str">
-        <v/>
+        <v>15 Herbouwwaarde             € 80008</v>
       </c>
       <c r="G27" t="str">
         <v>x</v>
@@ -10041,22 +10193,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Herbouwwaarde</v>
+        <v/>
       </c>
       <c r="B28" t="str">
-        <v>€ 80008</v>
+        <v>80008</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D28" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F28" t="str">
-        <v>15 Herbouwwaarde             € 80008</v>
+        <v/>
       </c>
       <c r="G28" t="str">
         <v>x</v>
@@ -10064,22 +10216,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v/>
+        <v>Huurwaarde</v>
       </c>
       <c r="B29" t="str">
-        <v>80008</v>
+        <v>€ 84818</v>
       </c>
       <c r="C29" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D29" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E29" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F29" t="str">
-        <v/>
+        <v>16 Huurwaarde                € 84818</v>
       </c>
       <c r="G29" t="str">
         <v>x</v>
@@ -10087,22 +10239,22 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Huurwaarde</v>
+        <v/>
       </c>
       <c r="B30" t="str">
-        <v>€ 84818</v>
+        <v>84818</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F30" t="str">
-        <v>16 Huurwaarde                € 84818</v>
+        <v/>
       </c>
       <c r="G30" t="str">
         <v>x</v>
@@ -10110,22 +10262,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B31" t="str">
-        <v>84818</v>
+        <v>80079</v>
       </c>
       <c r="C31" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D31" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v/>
+        <v>17                                                                                   80079</v>
       </c>
       <c r="G31" t="str">
         <v>x</v>
@@ -10133,7 +10285,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B32" t="str">
         <v>80079</v>
@@ -10142,13 +10294,13 @@
         <v/>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F32" t="str">
-        <v>17                                                                                   80079</v>
+        <v/>
       </c>
       <c r="G32" t="str">
         <v>x</v>
@@ -10156,22 +10308,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v/>
+        <v>Onroerend goed object 2</v>
       </c>
       <c r="B33" t="str">
-        <v>80079</v>
+        <v>80077 80093 86451</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F33" t="str">
-        <v/>
+        <v>18 Onroerend goed object 2   80077 80093 86451</v>
       </c>
       <c r="G33" t="str">
         <v>x</v>
@@ -10179,22 +10331,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Onroerend goed object 2</v>
+        <v/>
       </c>
       <c r="B34" t="str">
-        <v>80077 80093 86451</v>
+        <v>80077</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F34" t="str">
-        <v>18 Onroerend goed object 2   80077 80093 86451</v>
+        <v/>
       </c>
       <c r="G34" t="str">
         <v>x</v>
@@ -10205,16 +10357,16 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>80077</v>
+        <v>80093</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D35" t="str">
         <v>Links</v>
       </c>
       <c r="E35" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F35" t="str">
         <v/>
@@ -10228,10 +10380,10 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>80093</v>
+        <v>86451</v>
       </c>
       <c r="C36" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D36" t="str">
         <v>Links</v>
@@ -10248,22 +10400,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B37" t="str">
-        <v>86451</v>
+        <v>80082 80088</v>
       </c>
       <c r="C37" t="str">
         <v/>
       </c>
       <c r="D37" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E37" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F37" t="str">
-        <v/>
+        <v>19                           80082 80088</v>
       </c>
       <c r="G37" t="str">
         <v>x</v>
@@ -10271,22 +10423,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B38" t="str">
-        <v>80082 80088</v>
+        <v>80082</v>
       </c>
       <c r="C38" t="str">
         <v/>
       </c>
       <c r="D38" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F38" t="str">
-        <v>19                           80082 80088</v>
+        <v/>
       </c>
       <c r="G38" t="str">
         <v>x</v>
@@ -10297,7 +10449,7 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>80082</v>
+        <v>80088</v>
       </c>
       <c r="C39" t="str">
         <v/>
@@ -10306,7 +10458,7 @@
         <v>Links</v>
       </c>
       <c r="E39" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F39" t="str">
         <v/>
@@ -10317,22 +10469,22 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v/>
+        <v>Dekkingscombinatie</v>
       </c>
       <c r="B40" t="str">
-        <v>80088</v>
+        <v>80733</v>
       </c>
       <c r="C40" t="str">
         <v/>
       </c>
       <c r="D40" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E40" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F40" t="str">
-        <v/>
+        <v>20 Dekkingscombinatie        80733</v>
       </c>
       <c r="G40" t="str">
         <v>x</v>
@@ -10340,22 +10492,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Dekkingscombinatie</v>
+        <v/>
       </c>
       <c r="B41" t="str">
         <v>80733</v>
       </c>
       <c r="C41" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D41" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F41" t="str">
-        <v>20 Dekkingscombinatie        80733</v>
+        <v/>
       </c>
       <c r="G41" t="str">
         <v>x</v>
@@ -10363,22 +10515,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>Herbouwwaarde</v>
       </c>
       <c r="B42" t="str">
-        <v>80733</v>
+        <v>€ 80735</v>
       </c>
       <c r="C42" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D42" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F42" t="str">
-        <v/>
+        <v>21 Herbouwwaarde             € 80735</v>
       </c>
       <c r="G42" t="str">
         <v>x</v>
@@ -10386,22 +10538,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Herbouwwaarde</v>
+        <v/>
       </c>
       <c r="B43" t="str">
-        <v>€ 80735</v>
+        <v>80735</v>
       </c>
       <c r="C43" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E43" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F43" t="str">
-        <v>21 Herbouwwaarde             € 80735</v>
+        <v/>
       </c>
       <c r="G43" t="str">
         <v>x</v>
@@ -10409,22 +10561,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>Huurwaarde</v>
       </c>
       <c r="B44" t="str">
-        <v>80735</v>
+        <v>€ 80737</v>
       </c>
       <c r="C44" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D44" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E44" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F44" t="str">
-        <v/>
+        <v>22 Huurwaarde                € 80737</v>
       </c>
       <c r="G44" t="str">
         <v>x</v>
@@ -10432,22 +10584,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Huurwaarde</v>
+        <v/>
       </c>
       <c r="B45" t="str">
-        <v>€ 80737</v>
+        <v>80737</v>
       </c>
       <c r="C45" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F45" t="str">
-        <v>22 Huurwaarde                € 80737</v>
+        <v/>
       </c>
       <c r="G45" t="str">
         <v>x</v>
@@ -10455,22 +10607,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B46" t="str">
-        <v>80737</v>
+        <v>80077</v>
       </c>
       <c r="C46" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D46" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E46" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F46" t="str">
-        <v/>
+        <v>23                                                                                   80077</v>
       </c>
       <c r="G46" t="str">
         <v>x</v>
@@ -10478,7 +10630,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B47" t="str">
         <v>80077</v>
@@ -10487,13 +10639,13 @@
         <v/>
       </c>
       <c r="D47" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E47" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F47" t="str">
-        <v>23                                                                                   80077</v>
+        <v/>
       </c>
       <c r="G47" t="str">
         <v>x</v>
@@ -10501,22 +10653,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v/>
+        <v>Onroerend goed object 3</v>
       </c>
       <c r="B48" t="str">
-        <v>80077</v>
+        <v>80078 80094 86577</v>
       </c>
       <c r="C48" t="str">
         <v/>
       </c>
       <c r="D48" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E48" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F48" t="str">
-        <v/>
+        <v>24 Onroerend goed object 3   80078 80094 86577</v>
       </c>
       <c r="G48" t="str">
         <v>x</v>
@@ -10524,22 +10676,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Onroerend goed object 3</v>
+        <v/>
       </c>
       <c r="B49" t="str">
-        <v>80078 80094 86577</v>
+        <v>80078</v>
       </c>
       <c r="C49" t="str">
         <v/>
       </c>
       <c r="D49" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E49" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F49" t="str">
-        <v>24 Onroerend goed object 3   80078 80094 86577</v>
+        <v/>
       </c>
       <c r="G49" t="str">
         <v>x</v>
@@ -10550,16 +10702,16 @@
         <v/>
       </c>
       <c r="B50" t="str">
-        <v>80078</v>
+        <v>80094</v>
       </c>
       <c r="C50" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D50" t="str">
         <v>Links</v>
       </c>
       <c r="E50" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F50" t="str">
         <v/>
@@ -10573,10 +10725,10 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <v>80094</v>
+        <v>86577</v>
       </c>
       <c r="C51" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D51" t="str">
         <v>Links</v>
@@ -10593,22 +10745,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B52" t="str">
-        <v>86577</v>
+        <v>80083 80089</v>
       </c>
       <c r="C52" t="str">
         <v/>
       </c>
       <c r="D52" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E52" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F52" t="str">
-        <v/>
+        <v>25                           80083 80089</v>
       </c>
       <c r="G52" t="str">
         <v>x</v>
@@ -10616,22 +10768,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B53" t="str">
-        <v>80083 80089</v>
+        <v>80083</v>
       </c>
       <c r="C53" t="str">
         <v/>
       </c>
       <c r="D53" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E53" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F53" t="str">
-        <v>25                           80083 80089</v>
+        <v/>
       </c>
       <c r="G53" t="str">
         <v>x</v>
@@ -10642,7 +10794,7 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <v>80083</v>
+        <v>80089</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -10651,7 +10803,7 @@
         <v>Links</v>
       </c>
       <c r="E54" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F54" t="str">
         <v/>
@@ -10662,22 +10814,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v/>
+        <v>Dekkingscombinatie</v>
       </c>
       <c r="B55" t="str">
-        <v>80089</v>
+        <v>80734</v>
       </c>
       <c r="C55" t="str">
         <v/>
       </c>
       <c r="D55" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E55" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F55" t="str">
-        <v/>
+        <v>26 Dekkingscombinatie        80734</v>
       </c>
       <c r="G55" t="str">
         <v>x</v>
@@ -10685,22 +10837,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Dekkingscombinatie</v>
+        <v/>
       </c>
       <c r="B56" t="str">
         <v>80734</v>
       </c>
       <c r="C56" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D56" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E56" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F56" t="str">
-        <v>26 Dekkingscombinatie        80734</v>
+        <v/>
       </c>
       <c r="G56" t="str">
         <v>x</v>
@@ -10708,22 +10860,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v/>
+        <v>Herbouwwaarde</v>
       </c>
       <c r="B57" t="str">
-        <v>80734</v>
+        <v>€ 80736</v>
       </c>
       <c r="C57" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D57" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E57" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F57" t="str">
-        <v/>
+        <v>27 Herbouwwaarde             € 80736</v>
       </c>
       <c r="G57" t="str">
         <v>x</v>
@@ -10731,22 +10883,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Herbouwwaarde</v>
+        <v/>
       </c>
       <c r="B58" t="str">
-        <v>€ 80736</v>
+        <v>80736</v>
       </c>
       <c r="C58" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D58" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E58" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F58" t="str">
-        <v>27 Herbouwwaarde             € 80736</v>
+        <v/>
       </c>
       <c r="G58" t="str">
         <v>x</v>
@@ -10754,22 +10906,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v/>
+        <v>Huurwaarde</v>
       </c>
       <c r="B59" t="str">
-        <v>80736</v>
+        <v>€ 80738</v>
       </c>
       <c r="C59" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D59" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F59" t="str">
-        <v/>
+        <v>28 Huurwaarde                € 80738</v>
       </c>
       <c r="G59" t="str">
         <v>x</v>
@@ -10777,22 +10929,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Huurwaarde</v>
+        <v/>
       </c>
       <c r="B60" t="str">
-        <v>€ 80738</v>
+        <v>80738</v>
       </c>
       <c r="C60" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D60" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F60" t="str">
-        <v>28 Huurwaarde                € 80738</v>
+        <v/>
       </c>
       <c r="G60" t="str">
         <v>x</v>
@@ -10800,22 +10952,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B61" t="str">
-        <v>80738</v>
+        <v>80078</v>
       </c>
       <c r="C61" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D61" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E61" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F61" t="str">
-        <v/>
+        <v>29                                                                                   80078</v>
       </c>
       <c r="G61" t="str">
         <v>x</v>
@@ -10823,7 +10975,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B62" t="str">
         <v>80078</v>
@@ -10832,13 +10984,13 @@
         <v/>
       </c>
       <c r="D62" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E62" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F62" t="str">
-        <v>29                                                                                   80078</v>
+        <v/>
       </c>
       <c r="G62" t="str">
         <v>x</v>
@@ -10846,22 +10998,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v/>
+        <v>Geschil</v>
       </c>
       <c r="B63" t="str">
-        <v>80078</v>
+        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
       </c>
       <c r="C63" t="str">
         <v/>
       </c>
       <c r="D63" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F63" t="str">
-        <v/>
+        <v>30 Geschil                   Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
       </c>
       <c r="G63" t="str">
         <v>x</v>
@@ -10869,10 +11021,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Geschil</v>
+        <v>n/a</v>
       </c>
       <c r="B64" t="str">
-        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
+        <v>contact opnemen met:</v>
       </c>
       <c r="C64" t="str">
         <v/>
@@ -10884,7 +11036,7 @@
         <v/>
       </c>
       <c r="F64" t="str">
-        <v>30 Geschil                   Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
+        <v>31                           contact opnemen met:</v>
       </c>
       <c r="G64" t="str">
         <v>x</v>
@@ -10895,7 +11047,7 @@
         <v>n/a</v>
       </c>
       <c r="B65" t="str">
-        <v>contact opnemen met:</v>
+        <v>ARAG Rechtsbijstand</v>
       </c>
       <c r="C65" t="str">
         <v/>
@@ -10907,7 +11059,7 @@
         <v/>
       </c>
       <c r="F65" t="str">
-        <v>31                           contact opnemen met:</v>
+        <v>32                           ARAG Rechtsbijstand</v>
       </c>
       <c r="G65" t="str">
         <v>x</v>
@@ -10918,7 +11070,7 @@
         <v>n/a</v>
       </c>
       <c r="B66" t="str">
-        <v>ARAG Rechtsbijstand</v>
+        <v>T (033) - 434 23 42 of via www.ARAG.nl</v>
       </c>
       <c r="C66" t="str">
         <v/>
@@ -10930,7 +11082,7 @@
         <v/>
       </c>
       <c r="F66" t="str">
-        <v>32                           ARAG Rechtsbijstand</v>
+        <v>33                           T (033) - 434 23 42 of via www.ARAG.nl</v>
       </c>
       <c r="G66" t="str">
         <v>x</v>
@@ -10938,10 +11090,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>n/a</v>
+        <v>Verzekerde Modules</v>
       </c>
       <c r="B67" t="str">
-        <v>T (033) - 434 23 42 of via www.ARAG.nl</v>
+        <v/>
       </c>
       <c r="C67" t="str">
         <v/>
@@ -10953,7 +11105,7 @@
         <v/>
       </c>
       <c r="F67" t="str">
-        <v>33                           T (033) - 434 23 42 of via www.ARAG.nl</v>
+        <v>35 Verzekerde Modules</v>
       </c>
       <c r="G67" t="str">
         <v>x</v>
@@ -10964,156 +11116,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G67"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>omschrijving</v>
-      </c>
-      <c r="B1" t="str">
-        <v>inhoud</v>
-      </c>
-      <c r="C1" t="str">
-        <v>weergave</v>
-      </c>
-      <c r="D1" t="str">
-        <v>uitlijnen</v>
-      </c>
-      <c r="E1" t="str">
-        <v>regel verwijderen</v>
-      </c>
-      <c r="F1" t="str">
-        <v>regel template</v>
-      </c>
-      <c r="G1" t="str">
-        <v>D323</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Soort verzekering</v>
-      </c>
-      <c r="B2" t="str">
-        <v>10142</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v>02 Soort verzekering         10142</v>
-      </c>
-      <c r="G2" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <v>10142</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E3" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Gezinssamenstelling</v>
-      </c>
-      <c r="B4" t="str">
-        <v>10694</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v>03 Gezinssamenstelling       10694</v>
-      </c>
-      <c r="G4" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v/>
-      </c>
-      <c r="B5" t="str">
-        <v>10694</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E5" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Verzekerde rubrieken</v>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v>05 Verzekerde rubrieken</v>
-      </c>
-      <c r="G6" t="str">
-        <v>x</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/formulieren/09000.xlsx
+++ b/formulieren/09000.xlsx
@@ -383,14 +383,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -916,10 +916,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>^</v>
+        <v>n/a</v>
       </c>
       <c r="B17" t="str">
-        <v>10631 10632 geboren 10630</v>
+        <v>10631 10632 10630 geboren 10633</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>^,</v>
+        <v>n/a</v>
       </c>
       <c r="B36" t="str">
-        <v>80078 te 80083</v>
+        <v>80078, 80083 te 80089</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>^,</v>
+        <v>n/a</v>
       </c>
       <c r="B41" t="str">
-        <v>80079 te 80084</v>
+        <v>80079, 80084 te 80090</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -3003,7 +3003,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3028,24 +3028,21 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
-        <v>D323</v>
+        <v>P311</v>
       </c>
       <c r="H1" t="str">
-        <v>P311</v>
+        <v>P357</v>
       </c>
       <c r="I1" t="str">
         <v>P353</v>
       </c>
       <c r="J1" t="str">
-        <v>P357</v>
+        <v>P368</v>
       </c>
       <c r="K1" t="str">
-        <v>P368</v>
+        <v>P373</v>
       </c>
       <c r="L1" t="str">
-        <v>P373</v>
-      </c>
-      <c r="M1" t="str">
         <v>P382</v>
       </c>
     </row>
@@ -3066,7 +3063,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>02 Soort verzekering         10142</v>
+        <v>02 Soort verzekering     10142</v>
       </c>
       <c r="G2" t="str">
         <v>x</v>
@@ -3084,9 +3081,6 @@
         <v>x</v>
       </c>
       <c r="L2" t="str">
-        <v>x</v>
-      </c>
-      <c r="M2" t="str">
         <v>x</v>
       </c>
     </row>
@@ -3125,9 +3119,6 @@
         <v>x</v>
       </c>
       <c r="L3" t="str">
-        <v>x</v>
-      </c>
-      <c r="M3" t="str">
         <v>x</v>
       </c>
     </row>
@@ -3148,7 +3139,7 @@
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>03 Gezinssamenstelling       10694</v>
+        <v>03 Gezinssamenstelling   10694</v>
       </c>
       <c r="G4" t="str">
         <v>x</v>
@@ -3166,9 +3157,6 @@
         <v>x</v>
       </c>
       <c r="L4" t="str">
-        <v>x</v>
-      </c>
-      <c r="M4" t="str">
         <v>x</v>
       </c>
     </row>
@@ -3186,7 +3174,7 @@
         <v>Links</v>
       </c>
       <c r="E5" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -3207,18 +3195,15 @@
         <v>x</v>
       </c>
       <c r="L5" t="str">
-        <v>x</v>
-      </c>
-      <c r="M5" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Aantal verh. wooneenheden</v>
+        <v>Franchise</v>
       </c>
       <c r="B6" t="str">
-        <v>80680</v>
+        <v>€ 12434</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -3230,7 +3215,7 @@
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>04 Aantal verh. wooneenheden 80680</v>
+        <v>04 Franchise             € 12434</v>
       </c>
       <c r="G6" t="str">
         <v>x</v>
@@ -3248,9 +3233,6 @@
         <v/>
       </c>
       <c r="L6" t="str">
-        <v/>
-      </c>
-      <c r="M6" t="str">
         <v/>
       </c>
     </row>
@@ -3259,7 +3241,7 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>80680</v>
+        <v>12434</v>
       </c>
       <c r="C7" t="str">
         <v>Getal exclusief decimalen</v>
@@ -3268,7 +3250,7 @@
         <v>Links</v>
       </c>
       <c r="E7" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F7" t="str">
         <v/>
@@ -3289,18 +3271,15 @@
         <v/>
       </c>
       <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Franchise</v>
+        <v>Meeverz. Werk en inkomen</v>
       </c>
       <c r="B8" t="str">
-        <v>€ 12434</v>
+        <v>11519</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -3312,16 +3291,16 @@
         <v/>
       </c>
       <c r="F8" t="str">
-        <v>04 Franchise             € 12434</v>
+        <v>04 Meeverz. Werk en inkomen  11519</v>
       </c>
       <c r="G8" t="str">
         <v/>
       </c>
       <c r="H8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J8" t="str">
         <v/>
@@ -3330,10 +3309,7 @@
         <v/>
       </c>
       <c r="L8" t="str">
-        <v/>
-      </c>
-      <c r="M8" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="9">
@@ -3341,16 +3317,16 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>12434</v>
+        <v>11519</v>
       </c>
       <c r="C9" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <v>Links</v>
       </c>
       <c r="E9" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -3359,10 +3335,10 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J9" t="str">
         <v/>
@@ -3371,18 +3347,15 @@
         <v/>
       </c>
       <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Meeverz. Werk en inkomen</v>
+        <v>Kostenmaximum</v>
       </c>
       <c r="B10" t="str">
-        <v>11519</v>
+        <v>€ 10611</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -3394,16 +3367,16 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>04 Meeverz. Werk en inkomen  11519</v>
+        <v>05 Kostenmaximum         € 10611</v>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H10" t="str">
         <v/>
       </c>
       <c r="I10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J10" t="str">
         <v/>
@@ -3413,9 +3386,6 @@
       </c>
       <c r="L10" t="str">
         <v/>
-      </c>
-      <c r="M10" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="11">
@@ -3423,28 +3393,28 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>11519</v>
+        <v>10611</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D11" t="str">
         <v>Links</v>
       </c>
       <c r="E11" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H11" t="str">
         <v/>
       </c>
       <c r="I11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J11" t="str">
         <v/>
@@ -3454,17 +3424,14 @@
       </c>
       <c r="L11" t="str">
         <v/>
-      </c>
-      <c r="M11" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Aantal verh. bedrijfseenheden</v>
+        <v>Meeverz. Fiscaal en Vermogen</v>
       </c>
       <c r="B12" t="str">
-        <v>80681</v>
+        <v>11517</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -3476,16 +3443,16 @@
         <v/>
       </c>
       <c r="F12" t="str">
-        <v>05 Aantal verh. bedrijfseenheden80681</v>
+        <v>05 Meeverz. Fiscaal en Vermogen11517</v>
       </c>
       <c r="G12" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H12" t="str">
         <v/>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J12" t="str">
         <v/>
@@ -3494,10 +3461,7 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="13">
@@ -3505,10 +3469,10 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>80681</v>
+        <v>11517</v>
       </c>
       <c r="C13" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D13" t="str">
         <v>Links</v>
@@ -3520,13 +3484,13 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H13" t="str">
         <v/>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J13" t="str">
         <v/>
@@ -3535,18 +3499,15 @@
         <v/>
       </c>
       <c r="L13" t="str">
-        <v/>
-      </c>
-      <c r="M13" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Kostenmaximum</v>
+        <v>Motorrijtuig meeverzekerd</v>
       </c>
       <c r="B14" t="str">
-        <v>€ 10611</v>
+        <v>11516</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -3558,7 +3519,7 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <v>05 Kostenmaximum         € 10611</v>
+        <v>05 Motorrijtuig meeverzekerd       11516</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -3576,9 +3537,6 @@
         <v/>
       </c>
       <c r="L14" t="str">
-        <v/>
-      </c>
-      <c r="M14" t="str">
         <v/>
       </c>
     </row>
@@ -3587,10 +3545,10 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v>10611</v>
+        <v>11516</v>
       </c>
       <c r="C15" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <v>Links</v>
@@ -3619,16 +3577,13 @@
       <c r="L15" t="str">
         <v/>
       </c>
-      <c r="M15" t="str">
-        <v/>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Meeverz. Fiscaal en Vermogen</v>
+        <v>Eigen woning meeverzekerd</v>
       </c>
       <c r="B16" t="str">
-        <v>11517</v>
+        <v>11515</v>
       </c>
       <c r="C16" t="str">
         <v/>
@@ -3640,16 +3595,16 @@
         <v/>
       </c>
       <c r="F16" t="str">
-        <v>05 Meeverz. Fiscaal en Vermogen11517</v>
+        <v>06 Eigen woning meeverzekerd       11515</v>
       </c>
       <c r="G16" t="str">
         <v/>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J16" t="str">
         <v/>
@@ -3659,9 +3614,6 @@
       </c>
       <c r="L16" t="str">
         <v/>
-      </c>
-      <c r="M16" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="17">
@@ -3669,7 +3621,7 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>11517</v>
+        <v>11515</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -3678,7 +3630,7 @@
         <v>Links</v>
       </c>
       <c r="E17" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -3687,10 +3639,10 @@
         <v/>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J17" t="str">
         <v/>
@@ -3700,17 +3652,14 @@
       </c>
       <c r="L17" t="str">
         <v/>
-      </c>
-      <c r="M17" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Motorrijtuig meeverzekerd</v>
+        <v>Mediation</v>
       </c>
       <c r="B18" t="str">
-        <v>11516</v>
+        <v>12436</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -3722,10 +3671,10 @@
         <v/>
       </c>
       <c r="F18" t="str">
-        <v>05 Motorrijtuig meeverzekerd       11516</v>
+        <v>06 Mediation             12436</v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H18" t="str">
         <v/>
@@ -3734,15 +3683,12 @@
         <v/>
       </c>
       <c r="J18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K18" t="str">
         <v/>
       </c>
       <c r="L18" t="str">
-        <v/>
-      </c>
-      <c r="M18" t="str">
         <v/>
       </c>
     </row>
@@ -3751,7 +3697,7 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>11516</v>
+        <v>12436</v>
       </c>
       <c r="C19" t="str">
         <v/>
@@ -3760,13 +3706,13 @@
         <v>Links</v>
       </c>
       <c r="E19" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -3775,24 +3721,21 @@
         <v/>
       </c>
       <c r="J19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K19" t="str">
         <v/>
       </c>
       <c r="L19" t="str">
-        <v/>
-      </c>
-      <c r="M19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Aantal verh. percelen</v>
+        <v>n/a</v>
       </c>
       <c r="B20" t="str">
-        <v>80836</v>
+        <v>Stichting Rechtsbijstand Mobiliteitsbranche (SRM)</v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -3804,10 +3747,10 @@
         <v/>
       </c>
       <c r="F20" t="str">
-        <v>06 Aantal verh. percelen     80836</v>
+        <v>07                           Stichting Rechtsbijstand Mobiliteitsbranche (SRM)</v>
       </c>
       <c r="G20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -3816,42 +3759,39 @@
         <v/>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K20" t="str">
         <v/>
       </c>
       <c r="L20" t="str">
-        <v/>
-      </c>
-      <c r="M20" t="str">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v/>
+        <v>Fiscaal recht &amp; vermogensbeheer</v>
       </c>
       <c r="B21" t="str">
-        <v>80836</v>
+        <v>11517</v>
       </c>
       <c r="C21" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v>07 Fiscaal recht &amp; vermogensbeheer 11517</v>
       </c>
       <c r="G21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -3863,71 +3803,65 @@
         <v/>
       </c>
       <c r="L21" t="str">
-        <v/>
-      </c>
-      <c r="M21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Eigen woning meeverzekerd</v>
+        <v/>
       </c>
       <c r="B22" t="str">
-        <v>11515</v>
+        <v>11517</v>
       </c>
       <c r="C22" t="str">
         <v/>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F22" t="str">
-        <v>06 Eigen woning meeverzekerd       11515</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <v/>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I22" t="str">
         <v/>
       </c>
       <c r="J22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K22" t="str">
         <v/>
       </c>
       <c r="L22" t="str">
-        <v/>
-      </c>
-      <c r="M22" t="str">
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v/>
+        <v>Geschil</v>
       </c>
       <c r="B23" t="str">
-        <v>11515</v>
+        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
       <c r="D23" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F23" t="str">
-        <v/>
+        <v>07 Geschil                   Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -3936,27 +3870,24 @@
         <v/>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J23" t="str">
         <v>x</v>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L23" t="str">
-        <v/>
-      </c>
-      <c r="M23" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Mediation</v>
+        <v>Werk en Inkomen</v>
       </c>
       <c r="B24" t="str">
-        <v>12436</v>
+        <v>11645</v>
       </c>
       <c r="C24" t="str">
         <v/>
@@ -3968,13 +3899,13 @@
         <v/>
       </c>
       <c r="F24" t="str">
-        <v>06 Mediation             12436</v>
+        <v>07 Werk en Inkomen       11645</v>
       </c>
       <c r="G24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I24" t="str">
         <v/>
@@ -3986,9 +3917,6 @@
         <v/>
       </c>
       <c r="L24" t="str">
-        <v/>
-      </c>
-      <c r="M24" t="str">
         <v/>
       </c>
     </row>
@@ -3997,7 +3925,7 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>12436</v>
+        <v>11645</v>
       </c>
       <c r="C25" t="str">
         <v/>
@@ -4012,10 +3940,10 @@
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I25" t="str">
         <v/>
@@ -4027,9 +3955,6 @@
         <v/>
       </c>
       <c r="L25" t="str">
-        <v/>
-      </c>
-      <c r="M25" t="str">
         <v/>
       </c>
     </row>
@@ -4038,7 +3963,7 @@
         <v>n/a</v>
       </c>
       <c r="B26" t="str">
-        <v>Stichting Rechtsbijstand Mobiliteitsbranche (SRM)</v>
+        <v>T (020) - 651 75 17</v>
       </c>
       <c r="C26" t="str">
         <v/>
@@ -4050,7 +3975,7 @@
         <v/>
       </c>
       <c r="F26" t="str">
-        <v>07                           Stichting Rechtsbijstand Mobiliteitsbranche (SRM)</v>
+        <v>08                           T (020) - 651 75 17</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -4068,18 +3993,15 @@
         <v>x</v>
       </c>
       <c r="L26" t="str">
-        <v/>
-      </c>
-      <c r="M26" t="str">
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Fiscaal recht &amp; vermogensbeheer</v>
+        <v>n/a</v>
       </c>
       <c r="B27" t="str">
-        <v>11517</v>
+        <v>T (024) - 36 66 662</v>
       </c>
       <c r="C27" t="str">
         <v/>
@@ -4091,7 +4013,7 @@
         <v/>
       </c>
       <c r="F27" t="str">
-        <v>07 Fiscaal recht &amp; vermogensbeheer 11517</v>
+        <v>08                           T (024) - 36 66 662</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -4109,30 +4031,27 @@
         <v/>
       </c>
       <c r="L27" t="str">
-        <v/>
-      </c>
-      <c r="M27" t="str">
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B28" t="str">
-        <v>11517</v>
+        <v>contact opnemen met:</v>
       </c>
       <c r="C28" t="str">
         <v/>
       </c>
       <c r="D28" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E28" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F28" t="str">
-        <v/>
+        <v>08                           contact opnemen met:</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -4141,27 +4060,24 @@
         <v/>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J28" t="str">
         <v>x</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L28" t="str">
-        <v/>
-      </c>
-      <c r="M28" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Werk en Inkomen</v>
+        <v>Belasting en vermogen</v>
       </c>
       <c r="B29" t="str">
-        <v>11645</v>
+        <v>12437</v>
       </c>
       <c r="C29" t="str">
         <v/>
@@ -4173,13 +4089,13 @@
         <v/>
       </c>
       <c r="F29" t="str">
-        <v>07 Werk en Inkomen       11645</v>
+        <v>08 Belasting en vermogen 12437</v>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I29" t="str">
         <v/>
@@ -4191,9 +4107,6 @@
         <v/>
       </c>
       <c r="L29" t="str">
-        <v/>
-      </c>
-      <c r="M29" t="str">
         <v/>
       </c>
     </row>
@@ -4202,7 +4115,7 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>11645</v>
+        <v>12437</v>
       </c>
       <c r="C30" t="str">
         <v/>
@@ -4217,10 +4130,10 @@
         <v/>
       </c>
       <c r="G30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I30" t="str">
         <v/>
@@ -4232,9 +4145,6 @@
         <v/>
       </c>
       <c r="L30" t="str">
-        <v/>
-      </c>
-      <c r="M30" t="str">
         <v/>
       </c>
     </row>
@@ -4243,7 +4153,7 @@
         <v>n/a</v>
       </c>
       <c r="B31" t="str">
-        <v>T (024) - 36 66 662</v>
+        <v>DAS Rechtsbijstand</v>
       </c>
       <c r="C31" t="str">
         <v/>
@@ -4255,7 +4165,7 @@
         <v/>
       </c>
       <c r="F31" t="str">
-        <v>08                           T (024) - 36 66 662</v>
+        <v>09                           DAS Rechtsbijstand</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -4264,7 +4174,7 @@
         <v/>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J31" t="str">
         <v/>
@@ -4273,18 +4183,15 @@
         <v>x</v>
       </c>
       <c r="L31" t="str">
-        <v/>
-      </c>
-      <c r="M31" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Belasting en vermogen</v>
+        <v>Geschil</v>
       </c>
       <c r="B32" t="str">
-        <v>12437</v>
+        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan</v>
       </c>
       <c r="C32" t="str">
         <v/>
@@ -4296,7 +4203,7 @@
         <v/>
       </c>
       <c r="F32" t="str">
-        <v>08 Belasting en vermogen 12437</v>
+        <v>09 Geschil                         Als u een juridisch geschil wilt melden of behoefte heeft aan</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -4314,36 +4221,33 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v/>
-      </c>
-      <c r="M32" t="str">
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v/>
+        <v>Wonen</v>
       </c>
       <c r="B33" t="str">
-        <v>12437</v>
+        <v>12438</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F33" t="str">
-        <v/>
+        <v>09 Wonen                 12438</v>
       </c>
       <c r="G33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I33" t="str">
         <v/>
@@ -4355,30 +4259,27 @@
         <v/>
       </c>
       <c r="L33" t="str">
-        <v/>
-      </c>
-      <c r="M33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Geschil</v>
+        <v/>
       </c>
       <c r="B34" t="str">
-        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
+        <v>12438</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F34" t="str">
-        <v>08 Geschil                   Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u</v>
+        <v/>
       </c>
       <c r="G34" t="str">
         <v>x</v>
@@ -4387,19 +4288,16 @@
         <v/>
       </c>
       <c r="I34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J34" t="str">
         <v/>
       </c>
       <c r="K34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L34" t="str">
-        <v>x</v>
-      </c>
-      <c r="M34" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="35">
@@ -4407,7 +4305,7 @@
         <v>n/a</v>
       </c>
       <c r="B35" t="str">
-        <v>contact opnemen met:</v>
+        <v>juridisch advies kunt u contact opnemen met:</v>
       </c>
       <c r="C35" t="str">
         <v/>
@@ -4419,36 +4317,33 @@
         <v/>
       </c>
       <c r="F35" t="str">
-        <v>09                           contact opnemen met:</v>
+        <v>10                                 juridisch advies kunt u contact opnemen met:</v>
       </c>
       <c r="G35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J35" t="str">
         <v/>
       </c>
       <c r="K35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L35" t="str">
-        <v>x</v>
-      </c>
-      <c r="M35" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Geschil</v>
+        <v>n/a</v>
       </c>
       <c r="B36" t="str">
-        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan</v>
+        <v>T (020) - 651 75 17 voor een aanrijdingsschade</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -4460,7 +4355,7 @@
         <v/>
       </c>
       <c r="F36" t="str">
-        <v>09 Geschil                         Als u een juridisch geschil wilt melden of behoefte heeft aan</v>
+        <v>10                           T (020) - 651 75 17 voor een aanrijdingsschade</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -4469,27 +4364,24 @@
         <v/>
       </c>
       <c r="I36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K36" t="str">
         <v/>
       </c>
       <c r="L36" t="str">
-        <v/>
-      </c>
-      <c r="M36" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Wonen</v>
+        <v>Verkeer</v>
       </c>
       <c r="B37" t="str">
-        <v>12438</v>
+        <v>12351</v>
       </c>
       <c r="C37" t="str">
         <v/>
@@ -4501,13 +4393,13 @@
         <v/>
       </c>
       <c r="F37" t="str">
-        <v>09 Wonen                 12438</v>
+        <v>10 Verkeer               12351</v>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I37" t="str">
         <v/>
@@ -4519,9 +4411,6 @@
         <v/>
       </c>
       <c r="L37" t="str">
-        <v/>
-      </c>
-      <c r="M37" t="str">
         <v/>
       </c>
     </row>
@@ -4530,7 +4419,7 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>12438</v>
+        <v>12351</v>
       </c>
       <c r="C38" t="str">
         <v/>
@@ -4545,10 +4434,10 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I38" t="str">
         <v/>
@@ -4560,9 +4449,6 @@
         <v/>
       </c>
       <c r="L38" t="str">
-        <v/>
-      </c>
-      <c r="M38" t="str">
         <v/>
       </c>
     </row>
@@ -4571,7 +4457,7 @@
         <v>n/a</v>
       </c>
       <c r="B39" t="str">
-        <v>juridisch advies kunt u contact opnemen met:</v>
+        <v>SRK Rechtsbijstand</v>
       </c>
       <c r="C39" t="str">
         <v/>
@@ -4583,27 +4469,24 @@
         <v/>
       </c>
       <c r="F39" t="str">
-        <v>10                                 juridisch advies kunt u contact opnemen met:</v>
+        <v>11                                 SRK Rechtsbijstand</v>
       </c>
       <c r="G39" t="str">
         <v/>
       </c>
       <c r="H39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I39" t="str">
         <v/>
       </c>
       <c r="J39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K39" t="str">
         <v/>
       </c>
       <c r="L39" t="str">
-        <v/>
-      </c>
-      <c r="M39" t="str">
         <v/>
       </c>
     </row>
@@ -4612,7 +4495,7 @@
         <v>n/a</v>
       </c>
       <c r="B40" t="str">
-        <v>DAS Rechtsbijstand</v>
+        <v>T (020) - 651 88 15 voor een juridische kwestie</v>
       </c>
       <c r="C40" t="str">
         <v/>
@@ -4624,10 +4507,10 @@
         <v/>
       </c>
       <c r="F40" t="str">
-        <v>10                           DAS Rechtsbijstand</v>
+        <v>11                           T (020) - 651 88 15 voor een juridische kwestie</v>
       </c>
       <c r="G40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -4642,9 +4525,6 @@
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>x</v>
-      </c>
-      <c r="M40" t="str">
         <v>x</v>
       </c>
     </row>
@@ -4653,7 +4533,7 @@
         <v>n/a</v>
       </c>
       <c r="B41" t="str">
-        <v>T (020) - 651 75 17 voor een aanrijdingsschade</v>
+        <v>T 079 - 344 81 81</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -4665,16 +4545,16 @@
         <v/>
       </c>
       <c r="F41" t="str">
-        <v>10                           T (020) - 651 75 17 voor een aanrijdingsschade</v>
+        <v>12                                 T 079 - 344 81 81</v>
       </c>
       <c r="G41" t="str">
         <v/>
       </c>
       <c r="H41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J41" t="str">
         <v/>
@@ -4684,17 +4564,14 @@
       </c>
       <c r="L41" t="str">
         <v/>
-      </c>
-      <c r="M41" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Verkeer</v>
+        <v>Geschil</v>
       </c>
       <c r="B42" t="str">
-        <v>12351</v>
+        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u contact opnemen met:</v>
       </c>
       <c r="C42" t="str">
         <v/>
@@ -4706,13 +4583,13 @@
         <v/>
       </c>
       <c r="F42" t="str">
-        <v>10 Verkeer               12351</v>
+        <v>12 Geschil               Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u contact opnemen met:</v>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I42" t="str">
         <v/>
@@ -4724,36 +4601,33 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v/>
-      </c>
-      <c r="M42" t="str">
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B43" t="str">
-        <v>12351</v>
+        <v>SRK Rechtsbijstand T (079) - 344 81 81</v>
       </c>
       <c r="C43" t="str">
         <v/>
       </c>
       <c r="D43" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E43" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F43" t="str">
-        <v/>
+        <v>13                       SRK Rechtsbijstand T (079) - 344 81 81</v>
       </c>
       <c r="G43" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I43" t="str">
         <v/>
@@ -4765,18 +4639,15 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v/>
-      </c>
-      <c r="M43" t="str">
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>n/a</v>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B44" t="str">
-        <v>SRK Rechtsbijstand</v>
+        <v/>
       </c>
       <c r="C44" t="str">
         <v/>
@@ -4788,279 +4659,30 @@
         <v/>
       </c>
       <c r="F44" t="str">
-        <v>11                                 SRK Rechtsbijstand</v>
+        <v>15 Verzekerde rubrieken</v>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J44" t="str">
         <v>x</v>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L44" t="str">
-        <v/>
-      </c>
-      <c r="M44" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B45" t="str">
-        <v>T (020) - 651 75 17</v>
-      </c>
-      <c r="C45" t="str">
-        <v/>
-      </c>
-      <c r="D45" t="str">
-        <v/>
-      </c>
-      <c r="E45" t="str">
-        <v/>
-      </c>
-      <c r="F45" t="str">
-        <v>11                           T (020) - 651 75 17</v>
-      </c>
-      <c r="G45" t="str">
-        <v>x</v>
-      </c>
-      <c r="H45" t="str">
-        <v/>
-      </c>
-      <c r="I45" t="str">
-        <v/>
-      </c>
-      <c r="J45" t="str">
-        <v/>
-      </c>
-      <c r="K45" t="str">
-        <v/>
-      </c>
-      <c r="L45" t="str">
-        <v>x</v>
-      </c>
-      <c r="M45" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B46" t="str">
-        <v>T (020) - 651 88 15 voor een juridische kwestie</v>
-      </c>
-      <c r="C46" t="str">
-        <v/>
-      </c>
-      <c r="D46" t="str">
-        <v/>
-      </c>
-      <c r="E46" t="str">
-        <v/>
-      </c>
-      <c r="F46" t="str">
-        <v>11                           T (020) - 651 88 15 voor een juridische kwestie</v>
-      </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-      <c r="H46" t="str">
-        <v/>
-      </c>
-      <c r="I46" t="str">
-        <v>x</v>
-      </c>
-      <c r="J46" t="str">
-        <v/>
-      </c>
-      <c r="K46" t="str">
-        <v/>
-      </c>
-      <c r="L46" t="str">
-        <v/>
-      </c>
-      <c r="M46" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B47" t="str">
-        <v>T 079 - 344 81 81</v>
-      </c>
-      <c r="C47" t="str">
-        <v/>
-      </c>
-      <c r="D47" t="str">
-        <v/>
-      </c>
-      <c r="E47" t="str">
-        <v/>
-      </c>
-      <c r="F47" t="str">
-        <v>12                                 T 079 - 344 81 81</v>
-      </c>
-      <c r="G47" t="str">
-        <v/>
-      </c>
-      <c r="H47" t="str">
-        <v/>
-      </c>
-      <c r="I47" t="str">
-        <v/>
-      </c>
-      <c r="J47" t="str">
-        <v>x</v>
-      </c>
-      <c r="K47" t="str">
-        <v/>
-      </c>
-      <c r="L47" t="str">
-        <v/>
-      </c>
-      <c r="M47" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Geschil</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u contact opnemen met:</v>
-      </c>
-      <c r="C48" t="str">
-        <v/>
-      </c>
-      <c r="D48" t="str">
-        <v/>
-      </c>
-      <c r="E48" t="str">
-        <v/>
-      </c>
-      <c r="F48" t="str">
-        <v>12 Geschil               Als u een juridisch geschil wilt melden of behoefte heeft aan juridisch advies kunt u contact opnemen met:</v>
-      </c>
-      <c r="G48" t="str">
-        <v/>
-      </c>
-      <c r="H48" t="str">
-        <v>x</v>
-      </c>
-      <c r="I48" t="str">
-        <v/>
-      </c>
-      <c r="J48" t="str">
-        <v/>
-      </c>
-      <c r="K48" t="str">
-        <v/>
-      </c>
-      <c r="L48" t="str">
-        <v/>
-      </c>
-      <c r="M48" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B49" t="str">
-        <v>SRK Rechtsbijstand T (079) - 344 81 81</v>
-      </c>
-      <c r="C49" t="str">
-        <v/>
-      </c>
-      <c r="D49" t="str">
-        <v/>
-      </c>
-      <c r="E49" t="str">
-        <v/>
-      </c>
-      <c r="F49" t="str">
-        <v>13                       SRK Rechtsbijstand T (079) - 344 81 81</v>
-      </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-      <c r="H49" t="str">
-        <v>x</v>
-      </c>
-      <c r="I49" t="str">
-        <v/>
-      </c>
-      <c r="J49" t="str">
-        <v/>
-      </c>
-      <c r="K49" t="str">
-        <v/>
-      </c>
-      <c r="L49" t="str">
-        <v/>
-      </c>
-      <c r="M49" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Verzekerde rubrieken</v>
-      </c>
-      <c r="B50" t="str">
-        <v/>
-      </c>
-      <c r="C50" t="str">
-        <v/>
-      </c>
-      <c r="D50" t="str">
-        <v/>
-      </c>
-      <c r="E50" t="str">
-        <v/>
-      </c>
-      <c r="F50" t="str">
-        <v>13 Verzekerde rubrieken</v>
-      </c>
-      <c r="G50" t="str">
-        <v>x</v>
-      </c>
-      <c r="H50" t="str">
-        <v>x</v>
-      </c>
-      <c r="I50" t="str">
-        <v>x</v>
-      </c>
-      <c r="J50" t="str">
-        <v>x</v>
-      </c>
-      <c r="K50" t="str">
-        <v>x</v>
-      </c>
-      <c r="L50" t="str">
-        <v>x</v>
-      </c>
-      <c r="M50" t="str">
         <v>x</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L44"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5538,10 +5160,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>^,</v>
+        <v>n/a</v>
       </c>
       <c r="B17" t="str">
-        <v>80078 te 80083</v>
+        <v>80078, 80083 te 80089</v>
       </c>
       <c r="C17" t="str">
         <v/>
